--- a/onprc_ehr/tools/excelTemplates/Labwork Panels.xlsx
+++ b/onprc_ehr/tools/excelTemplates/Labwork Panels.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="244">
   <si>
     <t>Service</t>
   </si>
@@ -742,6 +742,12 @@
   </si>
   <si>
     <t>Lymph</t>
+  </si>
+  <si>
+    <t>BASIC Chemistry Panel (Axthelm)</t>
+  </si>
+  <si>
+    <t>Research Staff</t>
   </si>
 </sst>
 </file>
@@ -1212,11 +1218,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2767,7 +2773,7 @@
         <v>147</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" ref="J65:J76" si="1">"['"&amp;A65&amp;"',"&amp;B65&amp;",'"&amp;C65&amp;"','"&amp;D65&amp;"','"&amp;G65&amp;"','"&amp;H65&amp;"'],"</f>
+        <f t="shared" ref="J65:J77" si="1">"['"&amp;A65&amp;"',"&amp;B65&amp;",'"&amp;C65&amp;"','"&amp;D65&amp;"','"&amp;G65&amp;"','"&amp;H65&amp;"'],"</f>
         <v>['PDL SRV2 WB',false,'SPF Surveillance Lab','Serology/Virology','T-0X500','Venipuncture '],</v>
       </c>
     </row>
@@ -3030,6 +3036,30 @@
       <c r="J76" t="str">
         <f t="shared" si="1"/>
         <v>['Other SPF Surveillance',false,'SPF Surveillance Lab','Misc Tests','',''],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>['BASIC Chemistry Panel (Axthelm)',false,'Research Staff','Biochemistry','T-0X500',''],</v>
       </c>
     </row>
   </sheetData>
@@ -3044,11 +3074,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J274"/>
+  <dimension ref="A1:J288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F275" sqref="F275:F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7077,7 +7107,7 @@
         <v>148</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" ref="F217:F274" si="5">"['"&amp;A217&amp;"','"&amp;B217&amp;"',"&amp;IF(D217&lt;&gt;"",D217,"null")&amp;",'"&amp;C217&amp;"','"&amp;E217&amp;"'],"</f>
+        <f t="shared" ref="F217:F280" si="5">"['"&amp;A217&amp;"','"&amp;B217&amp;"',"&amp;IF(D217&lt;&gt;"",D217,"null")&amp;",'"&amp;C217&amp;"','"&amp;E217&amp;"'],"</f>
         <v>['Herpes B Post-Exposure Baseline Virology','E-32140',5,'Cell Culture CPE','agent'],</v>
       </c>
     </row>
@@ -8276,6 +8306,258 @@
       <c r="F274" t="str">
         <f t="shared" si="5"/>
         <v>['SRV Virus Isolation','E-YY328',1,'Cell Culture CPE','agent'],</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="5"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','ALB',1,'','testid'],</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="5"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','ALKP',2,'','testid'],</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="5"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','ALT',3,'','testid'],</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="5"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','Amyl',4,'','testid'],</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="5"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','TBili',5,'','testid'],</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D280">
+        <v>6</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="5"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','BUN',6,'','testid'],</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D281">
+        <v>7</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" ref="F281:F284" si="6">"['"&amp;A281&amp;"','"&amp;B281&amp;"',"&amp;IF(D281&lt;&gt;"",D281,"null")&amp;",'"&amp;C281&amp;"','"&amp;E281&amp;"'],"</f>
+        <v>['BASIC Chemistry Panel (Axthelm)','Ca',7,'','testid'],</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D282">
+        <v>8</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F282" t="str">
+        <f t="shared" si="6"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','Phos',8,'','testid'],</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D283">
+        <v>9</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="6"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','CREAT',9,'','testid'],</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D284">
+        <v>10</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="6"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','GLUC',10,'','testid'],</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D285">
+        <v>11</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" ref="F285:F288" si="7">"['"&amp;A285&amp;"','"&amp;B285&amp;"',"&amp;IF(D285&lt;&gt;"",D285,"null")&amp;",'"&amp;C285&amp;"','"&amp;E285&amp;"'],"</f>
+        <v>['BASIC Chemistry Panel (Axthelm)','Na',11,'','testid'],</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D286">
+        <v>12</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="7"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','K',12,'','testid'],</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D287">
+        <v>13</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="7"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','TP',13,'','testid'],</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D288">
+        <v>14</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="7"/>
+        <v>['BASIC Chemistry Panel (Axthelm)','Glob',14,'','testid'],</v>
       </c>
     </row>
   </sheetData>

--- a/onprc_ehr/tools/excelTemplates/Labwork Panels.xlsx
+++ b/onprc_ehr/tools/excelTemplates/Labwork Panels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="22035" windowHeight="9465" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="22035" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="246">
   <si>
     <t>Service</t>
   </si>
@@ -291,12 +291,6 @@
     <t>A/G Ratio</t>
   </si>
   <si>
-    <t>Prothrombin time</t>
-  </si>
-  <si>
-    <t>Activated partial thromboplastin time</t>
-  </si>
-  <si>
     <t>Malaria</t>
   </si>
   <si>
@@ -687,9 +681,6 @@
     <t>Vitamin D (250H)</t>
   </si>
   <si>
-    <t>Clotting Panel</t>
-  </si>
-  <si>
     <t>Mg</t>
   </si>
   <si>
@@ -748,13 +739,28 @@
   </si>
   <si>
     <t>Research Staff</t>
+  </si>
+  <si>
+    <t>Calcium, total</t>
+  </si>
+  <si>
+    <t>Calcium, ionized</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>APTT</t>
+  </si>
+  <si>
+    <t>Ca, ionized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -815,6 +821,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -838,7 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -863,6 +874,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,11 +1232,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>66</v>
@@ -1253,7 +1267,7 @@
         <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>65</v>
@@ -1264,7 +1278,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1282,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1291,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J64" si="0">"['"&amp;A3&amp;"',"&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"'],"</f>
@@ -1306,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -1315,10 +1329,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
@@ -1330,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1339,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
@@ -1354,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1363,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
@@ -1375,10 +1389,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -1387,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
@@ -1399,10 +1413,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
@@ -1411,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -1426,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -1435,10 +1449,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
@@ -1450,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -1459,10 +1473,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
@@ -1474,7 +1488,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -1483,10 +1497,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
@@ -1495,10 +1509,10 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
@@ -1507,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
@@ -1522,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
@@ -1531,10 +1545,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -1543,10 +1557,10 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
@@ -1555,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
@@ -1570,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
@@ -1582,7 +1596,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -1594,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -1606,7 +1620,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -1615,10 +1629,10 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
@@ -1630,7 +1644,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -1642,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
@@ -1654,7 +1668,7 @@
         <v>40</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -1666,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -1678,7 +1692,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -1690,7 +1704,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -1702,7 +1716,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
@@ -1714,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
@@ -1732,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
@@ -1753,7 +1767,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
@@ -1771,7 +1785,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
@@ -1786,22 +1800,22 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -1810,22 +1824,22 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -1834,22 +1848,22 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -1858,22 +1872,22 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
@@ -1882,22 +1896,22 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -1906,16 +1920,16 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
@@ -1927,13 +1941,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -1945,13 +1959,13 @@
         <v>76</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -1960,16 +1974,16 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
@@ -1981,19 +1995,19 @@
         <v>16</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
@@ -2005,13 +2019,13 @@
         <v>79</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
@@ -2023,19 +2037,19 @@
         <v>21</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
@@ -2047,13 +2061,13 @@
         <v>22</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
@@ -2062,16 +2076,16 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
@@ -2083,19 +2097,19 @@
         <v>23</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
@@ -2104,22 +2118,22 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
@@ -2128,16 +2142,16 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
@@ -2146,22 +2160,22 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
@@ -2170,22 +2184,22 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
@@ -2197,7 +2211,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
@@ -2206,10 +2220,10 @@
         <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
@@ -2218,25 +2232,25 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
@@ -2245,25 +2259,25 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
@@ -2272,25 +2286,25 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
@@ -2299,25 +2313,25 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
@@ -2326,25 +2340,25 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
@@ -2353,25 +2367,25 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
@@ -2380,25 +2394,25 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
@@ -2407,25 +2421,25 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
@@ -2434,25 +2448,25 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
@@ -2461,25 +2475,25 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" t="s">
         <v>40</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
@@ -2488,25 +2502,25 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
@@ -2515,25 +2529,25 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
         <v>40</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
@@ -2542,19 +2556,19 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
@@ -2563,25 +2577,25 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
@@ -2590,25 +2604,25 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
@@ -2617,25 +2631,25 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
@@ -2644,25 +2658,25 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
@@ -2671,25 +2685,25 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
@@ -2698,25 +2712,25 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
@@ -2725,25 +2739,25 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
@@ -2752,52 +2766,52 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" ref="J65:J77" si="1">"['"&amp;A65&amp;"',"&amp;B65&amp;",'"&amp;C65&amp;"','"&amp;D65&amp;"','"&amp;G65&amp;"','"&amp;H65&amp;"'],"</f>
+        <f t="shared" ref="J65:J79" si="1">"['"&amp;A65&amp;"',"&amp;B65&amp;",'"&amp;C65&amp;"','"&amp;D65&amp;"','"&amp;G65&amp;"','"&amp;H65&amp;"'],"</f>
         <v>['PDL SRV2 WB',false,'SPF Surveillance Lab','Serology/Virology','T-0X500','Venipuncture '],</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="1"/>
@@ -2806,25 +2820,25 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" si="1"/>
@@ -2833,25 +2847,25 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" t="s">
         <v>145</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E68" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H68" t="s">
-        <v>147</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="1"/>
@@ -2860,25 +2874,25 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
@@ -2890,7 +2904,7 @@
         <v>26</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
@@ -2899,10 +2913,10 @@
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I70" t="s">
         <v>83</v>
@@ -2917,13 +2931,13 @@
         <v>80</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
@@ -2932,22 +2946,22 @@
     </row>
     <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
@@ -2956,22 +2970,22 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J73" t="str">
         <f>"['"&amp;A73&amp;"',"&amp;B73&amp;",'"&amp;C73&amp;"','"&amp;D73&amp;"','"&amp;G73&amp;"','"&amp;H73&amp;"'],"</f>
@@ -2980,22 +2994,22 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J74" t="str">
         <f>"['"&amp;A74&amp;"',"&amp;B74&amp;",'"&amp;C74&amp;"','"&amp;D74&amp;"','"&amp;G74&amp;"','"&amp;H74&amp;"'],"</f>
@@ -3004,16 +3018,16 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
@@ -3022,16 +3036,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
@@ -3040,26 +3054,74 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
         <v>['BASIC Chemistry Panel (Axthelm)',false,'Research Staff','Biochemistry','T-0X500',''],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>['Calcium, total',false,'Clinpath','Biochemistry','T-0X500',''],</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>['Calcium, ionized',false,'Clinpath','Biochemistry','T-0X500',''],</v>
       </c>
     </row>
   </sheetData>
@@ -3074,11 +3136,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J288"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F275" sqref="F275:F288"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F289" sqref="F289:F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3100,13 +3162,13 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3119,7 +3181,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F2" t="str">
         <f>"['"&amp;A2&amp;"','"&amp;B2&amp;"',"&amp;IF(D2&lt;&gt;"",D2,"null")&amp;",'"&amp;C2&amp;"','"&amp;E2&amp;"'],"</f>
@@ -3136,7 +3198,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F90" si="0">"['"&amp;A3&amp;"','"&amp;B3&amp;"',"&amp;IF(D3&lt;&gt;"",D3,"null")&amp;",'"&amp;C3&amp;"','"&amp;E3&amp;"'],"</f>
@@ -3148,14 +3210,14 @@
         <v>75</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -3167,14 +3229,14 @@
         <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -3186,14 +3248,14 @@
         <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -3205,14 +3267,14 @@
         <v>75</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
         <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -3224,14 +3286,14 @@
         <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -3243,14 +3305,14 @@
         <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3262,14 +3324,14 @@
         <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -3281,14 +3343,14 @@
         <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -3300,14 +3362,14 @@
         <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
         <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -3319,14 +3381,14 @@
         <v>75</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -3338,14 +3400,14 @@
         <v>75</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6">
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -3357,14 +3419,14 @@
         <v>75</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -3382,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -3400,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -3418,7 +3480,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -3436,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -3454,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -3472,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -3490,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -3508,7 +3570,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -3526,7 +3588,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -3544,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -3562,7 +3624,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -3580,7 +3642,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -3598,7 +3660,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" t="str">
         <f>"['"&amp;A28&amp;"','"&amp;B28&amp;"',"&amp;IF(D28&lt;&gt;"",D28,"null")&amp;",'"&amp;C28&amp;"','"&amp;E28&amp;"'],"</f>
@@ -3616,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -3634,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -3652,7 +3714,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -3670,7 +3732,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -3688,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -3706,7 +3768,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -3724,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -3742,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -3760,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -3772,13 +3834,13 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -3796,7 +3858,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -3814,7 +3876,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -3832,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" ref="F41:F59" si="1">"['"&amp;A41&amp;"','"&amp;B41&amp;"',"&amp;IF(D41&lt;&gt;"",D41,"null")&amp;",'"&amp;C41&amp;"','"&amp;E41&amp;"'],"</f>
@@ -3850,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
@@ -3862,13 +3924,13 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
@@ -3886,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
@@ -3904,7 +3966,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
@@ -3922,7 +3984,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
@@ -3940,7 +4002,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
@@ -3952,13 +4014,13 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
@@ -3976,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
@@ -3988,13 +4050,13 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
@@ -4012,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
@@ -4024,13 +4086,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D52">
         <v>12</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
@@ -4048,7 +4110,7 @@
         <v>13</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
@@ -4060,13 +4122,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D54">
         <v>14</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
@@ -4078,13 +4140,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D55">
         <v>15</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
@@ -4096,13 +4158,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D56">
         <v>16</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
@@ -4114,13 +4176,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D57">
         <v>17</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
@@ -4138,7 +4200,7 @@
         <v>18</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
@@ -4156,7 +4218,7 @@
         <v>19</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
@@ -4165,7 +4227,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
@@ -4174,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ref="F60:F81" si="2">"['"&amp;A60&amp;"','"&amp;B60&amp;"',"&amp;IF(D60&lt;&gt;"",D60,"null")&amp;",'"&amp;C60&amp;"','"&amp;E60&amp;"'],"</f>
@@ -4183,7 +4245,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
         <v>42</v>
@@ -4192,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="2"/>
@@ -4201,16 +4263,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="2"/>
@@ -4219,7 +4281,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -4228,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="2"/>
@@ -4237,7 +4299,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -4246,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="2"/>
@@ -4255,7 +4317,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -4264,7 +4326,7 @@
         <v>6</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="2"/>
@@ -4273,7 +4335,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
         <v>51</v>
@@ -4282,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="2"/>
@@ -4291,16 +4353,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="2"/>
@@ -4309,7 +4371,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
         <v>87</v>
@@ -4318,7 +4380,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="2"/>
@@ -4327,16 +4389,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D69">
         <v>10</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
@@ -4345,7 +4407,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
@@ -4354,7 +4416,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
@@ -4363,16 +4425,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D71">
         <v>12</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="2"/>
@@ -4381,7 +4443,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
@@ -4390,7 +4452,7 @@
         <v>13</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="2"/>
@@ -4399,16 +4461,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D73">
         <v>14</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="2"/>
@@ -4417,16 +4479,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D74">
         <v>15</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="2"/>
@@ -4435,16 +4497,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D75">
         <v>16</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="2"/>
@@ -4453,16 +4515,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D76">
         <v>17</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="2"/>
@@ -4471,7 +4533,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
@@ -4480,7 +4542,7 @@
         <v>18</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="2"/>
@@ -4489,7 +4551,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
         <v>89</v>
@@ -4498,7 +4560,7 @@
         <v>19</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="2"/>
@@ -4507,7 +4569,7 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
@@ -4516,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="2"/>
@@ -4525,16 +4587,16 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="2"/>
@@ -4543,16 +4605,16 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="2"/>
@@ -4561,17 +4623,17 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F82" t="str">
         <f>"['"&amp;A82&amp;"','"&amp;B82&amp;"',"&amp;IF(D82&lt;&gt;"",D82,"null")&amp;",'"&amp;C82&amp;"','"&amp;E82&amp;"'],"</f>
@@ -4580,17 +4642,17 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F83" t="str">
         <f>"['"&amp;A83&amp;"','"&amp;B83&amp;"',"&amp;IF(D83&lt;&gt;"",D83,"null")&amp;",'"&amp;C83&amp;"','"&amp;E83&amp;"'],"</f>
@@ -4602,13 +4664,13 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="0"/>
@@ -4626,7 +4688,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="0"/>
@@ -4638,13 +4700,13 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="0"/>
@@ -4656,13 +4718,13 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="0"/>
@@ -4680,7 +4742,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="0"/>
@@ -4698,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="0"/>
@@ -4716,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="0"/>
@@ -4734,7 +4796,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" ref="F91:F154" si="3">"['"&amp;A91&amp;"','"&amp;B91&amp;"',"&amp;IF(D91&lt;&gt;"",D91,"null")&amp;",'"&amp;C91&amp;"','"&amp;E91&amp;"'],"</f>
@@ -4752,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="3"/>
@@ -4770,7 +4832,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="3"/>
@@ -4782,13 +4844,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="3"/>
@@ -4806,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="3"/>
@@ -4818,13 +4880,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="3"/>
@@ -4836,13 +4898,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
@@ -4860,7 +4922,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
@@ -4872,13 +4934,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D99">
         <v>6</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
@@ -4890,13 +4952,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D100">
         <v>7</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
@@ -4908,13 +4970,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D101">
         <v>8</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
@@ -4932,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
@@ -4950,7 +5012,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
@@ -4968,7 +5030,7 @@
         <v>11</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
@@ -4986,7 +5048,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
@@ -5004,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
@@ -5022,7 +5084,7 @@
         <v>14</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
@@ -5034,13 +5096,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D108">
         <v>15</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
@@ -5058,7 +5120,7 @@
         <v>16</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
@@ -5076,7 +5138,7 @@
         <v>17</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
@@ -5085,16 +5147,16 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
@@ -5103,7 +5165,7 @@
     </row>
     <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B112" t="s">
         <v>58</v>
@@ -5112,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
@@ -5121,16 +5183,16 @@
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D113">
         <v>3</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
@@ -5139,16 +5201,16 @@
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D114">
         <v>4</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
@@ -5157,7 +5219,7 @@
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
@@ -5166,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
@@ -5175,16 +5237,16 @@
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D116">
         <v>6</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="3"/>
@@ -5193,16 +5255,16 @@
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D117">
         <v>7</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="3"/>
@@ -5211,16 +5273,16 @@
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D118">
         <v>8</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="3"/>
@@ -5229,7 +5291,7 @@
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
         <v>52</v>
@@ -5238,7 +5300,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="3"/>
@@ -5247,7 +5309,7 @@
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B120" t="s">
         <v>53</v>
@@ -5256,7 +5318,7 @@
         <v>10</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="3"/>
@@ -5265,16 +5327,16 @@
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D121">
         <v>11</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
@@ -5283,7 +5345,7 @@
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B122" t="s">
         <v>90</v>
@@ -5292,7 +5354,7 @@
         <v>12</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
@@ -5301,7 +5363,7 @@
     </row>
     <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B123" t="s">
         <v>62</v>
@@ -5310,7 +5372,7 @@
         <v>13</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
@@ -5319,7 +5381,7 @@
     </row>
     <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
         <v>60</v>
@@ -5328,7 +5390,7 @@
         <v>14</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
@@ -5337,16 +5399,16 @@
     </row>
     <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D125">
         <v>15</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
@@ -5355,16 +5417,16 @@
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D126">
         <v>16</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F126" t="str">
         <f>"['"&amp;A126&amp;"','"&amp;B126&amp;"',"&amp;IF(D126&lt;&gt;"",D126,"null")&amp;",'"&amp;C126&amp;"','"&amp;E126&amp;"'],"</f>
@@ -5373,7 +5435,7 @@
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B127" t="s">
         <v>57</v>
@@ -5382,7 +5444,7 @@
         <v>17</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
@@ -5391,7 +5453,7 @@
     </row>
     <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B128" t="s">
         <v>54</v>
@@ -5400,7 +5462,7 @@
         <v>18</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
@@ -5409,7 +5471,7 @@
     </row>
     <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
@@ -5418,7 +5480,7 @@
         <v>19</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
@@ -5427,7 +5489,7 @@
     </row>
     <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B130" t="s">
         <v>56</v>
@@ -5436,7 +5498,7 @@
         <v>20</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="3"/>
@@ -5445,7 +5507,7 @@
     </row>
     <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B131" t="s">
         <v>55</v>
@@ -5454,7 +5516,7 @@
         <v>21</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="3"/>
@@ -5463,16 +5525,16 @@
     </row>
     <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D132">
         <v>22</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="3"/>
@@ -5481,16 +5543,16 @@
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="3"/>
@@ -5499,7 +5561,7 @@
     </row>
     <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B134" t="s">
         <v>58</v>
@@ -5508,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="3"/>
@@ -5517,16 +5579,16 @@
     </row>
     <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="3"/>
@@ -5535,16 +5597,16 @@
     </row>
     <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D136">
         <v>4</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="3"/>
@@ -5553,7 +5615,7 @@
     </row>
     <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B137" t="s">
         <v>59</v>
@@ -5562,7 +5624,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="3"/>
@@ -5571,16 +5633,16 @@
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B138" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D138">
         <v>6</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="3"/>
@@ -5589,16 +5651,16 @@
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D139">
         <v>7</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="3"/>
@@ -5607,16 +5669,16 @@
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B140" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D140">
         <v>8</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="3"/>
@@ -5625,7 +5687,7 @@
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
         <v>52</v>
@@ -5634,7 +5696,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="3"/>
@@ -5643,7 +5705,7 @@
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B142" t="s">
         <v>53</v>
@@ -5652,7 +5714,7 @@
         <v>10</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="3"/>
@@ -5661,16 +5723,16 @@
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B143" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D143">
         <v>11</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="3"/>
@@ -5679,7 +5741,7 @@
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B144" t="s">
         <v>90</v>
@@ -5688,7 +5750,7 @@
         <v>12</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="3"/>
@@ -5697,7 +5759,7 @@
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
         <v>62</v>
@@ -5706,7 +5768,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="3"/>
@@ -5715,7 +5777,7 @@
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B146" t="s">
         <v>60</v>
@@ -5724,7 +5786,7 @@
         <v>14</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="3"/>
@@ -5733,16 +5795,16 @@
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D147">
         <v>15</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="3"/>
@@ -5751,16 +5813,16 @@
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D148">
         <v>16</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="3"/>
@@ -5769,7 +5831,7 @@
     </row>
     <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
         <v>57</v>
@@ -5778,7 +5840,7 @@
         <v>17</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="3"/>
@@ -5787,7 +5849,7 @@
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B150" t="s">
         <v>54</v>
@@ -5796,7 +5858,7 @@
         <v>18</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="3"/>
@@ -5805,7 +5867,7 @@
     </row>
     <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B151" t="s">
         <v>61</v>
@@ -5814,7 +5876,7 @@
         <v>19</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="3"/>
@@ -5823,7 +5885,7 @@
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B152" t="s">
         <v>56</v>
@@ -5832,7 +5894,7 @@
         <v>20</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="3"/>
@@ -5841,7 +5903,7 @@
     </row>
     <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B153" t="s">
         <v>55</v>
@@ -5850,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="3"/>
@@ -5859,16 +5921,16 @@
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D154">
         <v>22</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="3"/>
@@ -5877,7 +5939,7 @@
     </row>
     <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B155" t="s">
         <v>17</v>
@@ -5886,7 +5948,7 @@
         <v>23</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" ref="F155:F216" si="4">"['"&amp;A155&amp;"','"&amp;B155&amp;"',"&amp;IF(D155&lt;&gt;"",D155,"null")&amp;",'"&amp;C155&amp;"','"&amp;E155&amp;"'],"</f>
@@ -5895,53 +5957,53 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B156" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="4"/>
-        <v>['Clotting Panel','Prothrombin time',1,'','testid'],</v>
+        <v>['Clotting panel','PT',1,'','testid'],</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>223</v>
-      </c>
-      <c r="B157" t="s">
-        <v>92</v>
+        <v>210</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="4"/>
-        <v>['Clotting Panel','Activated partial thromboplastin time',2,'','testid'],</v>
+        <v>['Clotting panel','APTT',2,'','testid'],</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="4"/>
@@ -5960,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="4"/>
@@ -5979,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="4"/>
@@ -5998,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="4"/>
@@ -6017,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="4"/>
@@ -6036,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="4"/>
@@ -6045,17 +6107,17 @@
     </row>
     <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164">
         <v>1</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="4"/>
@@ -6074,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="4"/>
@@ -6093,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="4"/>
@@ -6112,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="4"/>
@@ -6131,7 +6193,7 @@
         <v>4</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="4"/>
@@ -6143,14 +6205,14 @@
         <v>21</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="4"/>
@@ -6169,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="4"/>
@@ -6178,17 +6240,17 @@
     </row>
     <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="4"/>
@@ -6197,17 +6259,17 @@
     </row>
     <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="4"/>
@@ -6219,21 +6281,21 @@
         <v>24</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="4"/>
         <v>['RBC Morphology','POIK',1,'','testid'],</v>
       </c>
       <c r="J173" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -6241,14 +6303,14 @@
         <v>24</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174">
         <v>2</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="4"/>
@@ -6260,14 +6322,14 @@
         <v>24</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="4"/>
@@ -6279,14 +6341,14 @@
         <v>24</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176">
         <v>4</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="4"/>
@@ -6298,14 +6360,14 @@
         <v>24</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177">
         <v>5</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="4"/>
@@ -6317,14 +6379,14 @@
         <v>24</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178">
         <v>6</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="4"/>
@@ -6336,14 +6398,14 @@
         <v>24</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179">
         <v>7</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="4"/>
@@ -6362,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="4"/>
@@ -6381,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="4"/>
@@ -6390,17 +6452,17 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182">
         <v>1</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="4"/>
@@ -6409,17 +6471,17 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183">
         <v>2</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="4"/>
@@ -6428,17 +6490,17 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184">
         <v>3</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="4"/>
@@ -6447,17 +6509,17 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185">
         <v>1</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="4"/>
@@ -6466,17 +6528,17 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="4"/>
@@ -6495,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="4"/>
@@ -6507,20 +6569,20 @@
         <v>82</v>
       </c>
       <c r="B188" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="4"/>
         <v>['WBC differential','LYMPH',1,'','testid'],</v>
       </c>
       <c r="J188" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -6528,13 +6590,13 @@
         <v>82</v>
       </c>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="4"/>
@@ -6546,13 +6608,13 @@
         <v>82</v>
       </c>
       <c r="B190" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="4"/>
@@ -6564,13 +6626,13 @@
         <v>82</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D191">
         <v>4</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="4"/>
@@ -6582,13 +6644,13 @@
         <v>82</v>
       </c>
       <c r="B192" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D192">
         <v>5</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="4"/>
@@ -6600,13 +6662,13 @@
         <v>82</v>
       </c>
       <c r="B193" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D193">
         <v>6</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="4"/>
@@ -6615,16 +6677,16 @@
     </row>
     <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="4"/>
@@ -6633,16 +6695,16 @@
     </row>
     <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B195" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D195">
         <v>2</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" si="4"/>
@@ -6651,19 +6713,19 @@
     </row>
     <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C196" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="4"/>
@@ -6672,19 +6734,19 @@
     </row>
     <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D197" s="12">
         <v>1</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="4"/>
@@ -6693,19 +6755,19 @@
     </row>
     <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D198" s="12">
         <v>1</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="4"/>
@@ -6714,19 +6776,19 @@
     </row>
     <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C199" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D199" s="12">
         <v>7</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="4"/>
@@ -6735,19 +6797,19 @@
     </row>
     <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C200" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D200" s="12">
         <v>1</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="4"/>
@@ -6756,19 +6818,19 @@
     </row>
     <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D201" s="12">
         <v>5</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="4"/>
@@ -6777,19 +6839,19 @@
     </row>
     <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C202" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D202">
         <v>5</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="4"/>
@@ -6798,19 +6860,19 @@
     </row>
     <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D203" s="12">
         <v>5</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="4"/>
@@ -6819,19 +6881,19 @@
     </row>
     <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D204" s="12">
         <v>9</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="4"/>
@@ -6840,19 +6902,19 @@
     </row>
     <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D205" s="12">
         <v>9</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="4"/>
@@ -6861,19 +6923,19 @@
     </row>
     <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C206" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="4"/>
@@ -6882,19 +6944,19 @@
     </row>
     <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D207" s="12">
         <v>4</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="4"/>
@@ -6903,19 +6965,19 @@
     </row>
     <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D208" s="12">
         <v>1</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="4"/>
@@ -6924,19 +6986,19 @@
     </row>
     <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D209" s="12">
         <v>1</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="4"/>
@@ -6945,19 +7007,19 @@
     </row>
     <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C210" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D210" s="13">
         <v>1</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="4"/>
@@ -6966,19 +7028,19 @@
     </row>
     <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D211" s="13">
         <v>2</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="4"/>
@@ -6987,19 +7049,19 @@
     </row>
     <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D212" s="13">
         <v>3</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="4"/>
@@ -7008,19 +7070,19 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="4"/>
@@ -7029,19 +7091,19 @@
     </row>
     <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="4"/>
@@ -7050,19 +7112,19 @@
     </row>
     <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D215">
         <v>3</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="4"/>
@@ -7071,19 +7133,19 @@
     </row>
     <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D216">
         <v>4</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="4"/>
@@ -7092,19 +7154,19 @@
     </row>
     <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D217">
         <v>5</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" ref="F217:F280" si="5">"['"&amp;A217&amp;"','"&amp;B217&amp;"',"&amp;IF(D217&lt;&gt;"",D217,"null")&amp;",'"&amp;C217&amp;"','"&amp;E217&amp;"'],"</f>
@@ -7113,19 +7175,19 @@
     </row>
     <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C218" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="5"/>
@@ -7134,19 +7196,19 @@
     </row>
     <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D219">
         <v>2</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="5"/>
@@ -7155,19 +7217,19 @@
     </row>
     <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D220">
         <v>3</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="5"/>
@@ -7176,19 +7238,19 @@
     </row>
     <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C221" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D221">
         <v>4</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="5"/>
@@ -7197,19 +7259,19 @@
     </row>
     <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D222" s="12">
         <v>4</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="5"/>
@@ -7218,19 +7280,19 @@
     </row>
     <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C223" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D223" s="12">
         <v>4</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="5"/>
@@ -7239,19 +7301,19 @@
     </row>
     <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C224" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D224" s="12">
         <v>5</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="5"/>
@@ -7260,19 +7322,19 @@
     </row>
     <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D225" s="12">
         <v>1</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="5"/>
@@ -7281,19 +7343,19 @@
     </row>
     <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D226">
         <v>2</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="5"/>
@@ -7302,19 +7364,19 @@
     </row>
     <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D227">
         <v>3</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="5"/>
@@ -7323,19 +7385,19 @@
     </row>
     <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D228" s="12">
         <v>6</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="5"/>
@@ -7344,19 +7406,19 @@
     </row>
     <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C229" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D229">
         <v>6</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="5"/>
@@ -7365,19 +7427,19 @@
     </row>
     <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D230" s="12">
         <v>6</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="5"/>
@@ -7386,19 +7448,19 @@
     </row>
     <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C231" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D231" s="12">
         <v>5</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="5"/>
@@ -7407,19 +7469,19 @@
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C232" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D232" s="12">
         <v>6</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="5"/>
@@ -7428,19 +7490,19 @@
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D233" s="12">
         <v>1</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="5"/>
@@ -7449,19 +7511,19 @@
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C234" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D234">
         <v>2</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="5"/>
@@ -7470,19 +7532,19 @@
     </row>
     <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D235" s="12">
         <v>10</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="5"/>
@@ -7491,19 +7553,19 @@
     </row>
     <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C236" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D236" s="13">
         <v>4</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="5"/>
@@ -7512,19 +7574,19 @@
     </row>
     <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D237" s="12">
         <v>10</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="5"/>
@@ -7533,19 +7595,19 @@
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C238" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D238" s="12">
         <v>8</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="5"/>
@@ -7554,19 +7616,19 @@
     </row>
     <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D239" s="12">
         <v>7</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="5"/>
@@ -7575,19 +7637,19 @@
     </row>
     <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C240" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D240" s="13">
         <v>5</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="5"/>
@@ -7596,19 +7658,19 @@
     </row>
     <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C241" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D241">
         <v>7</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="5"/>
@@ -7617,19 +7679,19 @@
     </row>
     <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D242" s="12">
         <v>7</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="5"/>
@@ -7638,19 +7700,19 @@
     </row>
     <row r="243" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C243" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D243" s="12">
         <v>1</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="5"/>
@@ -7659,19 +7721,19 @@
     </row>
     <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C244" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D244" s="12">
         <v>1</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="5"/>
@@ -7680,19 +7742,19 @@
     </row>
     <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D245" s="12">
         <v>4</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="5"/>
@@ -7701,19 +7763,19 @@
     </row>
     <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C246" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="5"/>
@@ -7722,19 +7784,19 @@
     </row>
     <row r="247" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D247" s="12">
         <v>8</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="5"/>
@@ -7743,19 +7805,19 @@
     </row>
     <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C248" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D248" s="13">
         <v>2</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="5"/>
@@ -7764,19 +7826,19 @@
     </row>
     <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D249" s="12">
         <v>8</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="5"/>
@@ -7785,19 +7847,19 @@
     </row>
     <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C250" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D250" s="12">
         <v>4</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="5"/>
@@ -7806,19 +7868,19 @@
     </row>
     <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C251" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D251" s="13">
         <v>1</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="5"/>
@@ -7827,19 +7889,19 @@
     </row>
     <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C252" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D252" s="12">
         <v>2</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="5"/>
@@ -7848,19 +7910,19 @@
     </row>
     <row r="253" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C253" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D253" s="12">
         <v>2</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="5"/>
@@ -7869,19 +7931,19 @@
     </row>
     <row r="254" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D254" s="12">
         <v>1</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="5"/>
@@ -7890,19 +7952,19 @@
     </row>
     <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D255">
         <v>2</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="5"/>
@@ -7911,19 +7973,19 @@
     </row>
     <row r="256" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D256" s="12">
         <v>2</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="5"/>
@@ -7932,19 +7994,19 @@
     </row>
     <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D257" s="12">
         <v>1</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="5"/>
@@ -7953,19 +8015,19 @@
     </row>
     <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D258" s="12">
         <v>1</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="5"/>
@@ -7974,19 +8036,19 @@
     </row>
     <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D259">
         <v>4</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="5"/>
@@ -7995,19 +8057,19 @@
     </row>
     <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C260" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D260">
         <v>2</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="5"/>
@@ -8016,19 +8078,19 @@
     </row>
     <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D261" s="12">
         <v>2</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="5"/>
@@ -8037,19 +8099,19 @@
     </row>
     <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D262" s="12">
         <v>2</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="5"/>
@@ -8058,19 +8120,19 @@
     </row>
     <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D263" s="12">
         <v>1</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="5"/>
@@ -8079,19 +8141,19 @@
     </row>
     <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C264" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="5"/>
@@ -8100,19 +8162,19 @@
     </row>
     <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D265" s="12">
         <v>1</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="5"/>
@@ -8121,19 +8183,19 @@
     </row>
     <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D266" s="12">
         <v>3</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="5"/>
@@ -8142,19 +8204,19 @@
     </row>
     <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B267" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C267" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="C267" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="D267" s="12">
         <v>3</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="5"/>
@@ -8163,19 +8225,19 @@
     </row>
     <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C268" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D268" s="13">
         <v>3</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="5"/>
@@ -8184,19 +8246,19 @@
     </row>
     <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C269" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D269">
         <v>3</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="5"/>
@@ -8205,19 +8267,19 @@
     </row>
     <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B270" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C270" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="D270" s="12">
         <v>3</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="5"/>
@@ -8226,19 +8288,19 @@
     </row>
     <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C271" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D271" s="12">
         <v>3</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="5"/>
@@ -8247,19 +8309,19 @@
     </row>
     <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C272" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D272" s="12">
         <v>3</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="5"/>
@@ -8268,19 +8330,19 @@
     </row>
     <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D273" s="12">
         <v>5</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="5"/>
@@ -8289,19 +8351,19 @@
     </row>
     <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D274" s="14">
         <v>1</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="5"/>
@@ -8310,7 +8372,7 @@
     </row>
     <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>53</v>
@@ -8319,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="5"/>
@@ -8328,7 +8390,7 @@
     </row>
     <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B276" s="10" t="s">
         <v>54</v>
@@ -8337,7 +8399,7 @@
         <v>2</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="5"/>
@@ -8346,7 +8408,7 @@
     </row>
     <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>55</v>
@@ -8355,7 +8417,7 @@
         <v>3</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="5"/>
@@ -8364,7 +8426,7 @@
     </row>
     <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B278" s="10" t="s">
         <v>63</v>
@@ -8373,7 +8435,7 @@
         <v>4</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="5"/>
@@ -8382,16 +8444,16 @@
     </row>
     <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D279">
         <v>5</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="5"/>
@@ -8400,7 +8462,7 @@
     </row>
     <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B280" s="10" t="s">
         <v>58</v>
@@ -8409,7 +8471,7 @@
         <v>6</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="5"/>
@@ -8418,16 +8480,16 @@
     </row>
     <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D281">
         <v>7</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" ref="F281:F284" si="6">"['"&amp;A281&amp;"','"&amp;B281&amp;"',"&amp;IF(D281&lt;&gt;"",D281,"null")&amp;",'"&amp;C281&amp;"','"&amp;E281&amp;"'],"</f>
@@ -8436,16 +8498,16 @@
     </row>
     <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D282">
         <v>8</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="6"/>
@@ -8454,16 +8516,16 @@
     </row>
     <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D283">
         <v>9</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="6"/>
@@ -8472,16 +8534,16 @@
     </row>
     <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D284">
         <v>10</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="6"/>
@@ -8490,25 +8552,25 @@
     </row>
     <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D285">
         <v>11</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F285" t="str">
-        <f t="shared" ref="F285:F288" si="7">"['"&amp;A285&amp;"','"&amp;B285&amp;"',"&amp;IF(D285&lt;&gt;"",D285,"null")&amp;",'"&amp;C285&amp;"','"&amp;E285&amp;"'],"</f>
+        <f t="shared" ref="F285:F290" si="7">"['"&amp;A285&amp;"','"&amp;B285&amp;"',"&amp;IF(D285&lt;&gt;"",D285,"null")&amp;",'"&amp;C285&amp;"','"&amp;E285&amp;"'],"</f>
         <v>['BASIC Chemistry Panel (Axthelm)','Na',11,'','testid'],</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>59</v>
@@ -8517,7 +8579,7 @@
         <v>12</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F286" t="str">
         <f t="shared" si="7"/>
@@ -8526,7 +8588,7 @@
     </row>
     <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B287" s="10" t="s">
         <v>52</v>
@@ -8535,7 +8597,7 @@
         <v>13</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F287" t="str">
         <f t="shared" si="7"/>
@@ -8544,20 +8606,56 @@
     </row>
     <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D288">
         <v>14</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F288" t="str">
         <f t="shared" si="7"/>
         <v>['BASIC Chemistry Panel (Axthelm)','Glob',14,'','testid'],</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A289" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="7"/>
+        <v>['Calcium, total','Ca',1,'','testid'],</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A290" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B290" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="7"/>
+        <v>['Calcium, ionized','Ca, ionized',1,'','testid'],</v>
       </c>
     </row>
   </sheetData>
